--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEE3180-380E-43EB-AF5C-D93C371F5839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E1F3FF-428C-4B2A-85AF-AFD8B3272671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaD,FaD,RaP,FaP,SaP,RaD,SaD,WaP</t>
-  </si>
-  <si>
-    <t>RaP,SaN,WaN,WaP,FaN,FaP,SaP,RaN</t>
+    <t>FaP,SaP,FaD,WaD,RaP,RaD,SaD,WaP</t>
+  </si>
+  <si>
+    <t>FaN,RaP,FaP,SaP,SaN,WaN,WaP,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaP,SaN,WaN,WaP,FaN,FaP,SaP,RaN</v>
+        <v>FaN,RaP,FaP,SaP,SaN,WaN,WaP,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaD,FaD,RaP,FaP,SaP,RaD,SaD,WaP</v>
+        <v>FaP,SaP,FaD,WaD,RaP,RaD,SaD,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4657AC2-9340-4755-8514-C7A67585E7E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A272556E-C4C4-4B3F-A34F-477F8A26D6E5}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36745EE0-E490-40D5-A2ED-41B892DD5F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ADD6D5-9ACD-4B10-9D6B-8390A2C895FD}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>0.30301943544655252</v>
+        <v>0.22555529847292924</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N5">
-        <v>0.22555529847292916</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N6">
-        <v>0.4043961129106895</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67369BCB-AEA5-4048-AE23-97D339C3B201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EBE38A-C333-4A4E-9637-74FFA300018E}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E1F3FF-428C-4B2A-85AF-AFD8B3272671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5502BE1A-368A-47F5-B630-47F923014147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,FaD,WaD,RaP,RaD,SaD,WaP</t>
-  </si>
-  <si>
-    <t>FaN,RaP,FaP,SaP,SaN,WaN,WaP,RaN</t>
+    <t>WaP,FaD,SaD,FaP,SaP,RaP,WaD,RaD</t>
+  </si>
+  <si>
+    <t>RaN,RaP,FaP,SaP,SaN,WaN,FaN,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaN,RaP,FaP,SaP,SaN,WaN,WaP,RaN</v>
+        <v>RaN,RaP,FaP,SaP,SaN,WaN,FaN,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,FaD,WaD,RaP,RaD,SaD,WaP</v>
+        <v>WaP,FaD,SaD,FaP,SaP,RaP,WaD,RaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A272556E-C4C4-4B3F-A34F-477F8A26D6E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7FA2D8-8EF8-47D1-92CE-2CA458B0D600}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ADD6D5-9ACD-4B10-9D6B-8390A2C895FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A0FF50-DD4D-4B1C-A66F-875F4540C071}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.22555529847292924</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N5">
-        <v>0.40439611291068944</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N7">
-        <v>0.26702915316982878</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EBE38A-C333-4A4E-9637-74FFA300018E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA300FA0-F27F-4B79-BAA7-5E0075D53747}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5502BE1A-368A-47F5-B630-47F923014147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2010C9B1-CFA5-4893-8FDF-3D219BA1A124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaP,FaD,SaD,FaP,SaP,RaP,WaD,RaD</t>
-  </si>
-  <si>
-    <t>RaN,RaP,FaP,SaP,SaN,WaN,FaN,WaP</t>
+    <t>FaP,SaP,RaD,WaP,SaD,RaP,FaD,WaD</t>
+  </si>
+  <si>
+    <t>FaN,WaP,RaN,SaN,WaN,FaP,SaP,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaN,RaP,FaP,SaP,SaN,WaN,FaN,WaP</v>
+        <v>FaN,WaP,RaN,SaN,WaN,FaP,SaP,RaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaP,FaD,SaD,FaP,SaP,RaP,WaD,RaD</v>
+        <v>FaP,SaP,RaD,WaP,SaD,RaP,FaD,WaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7FA2D8-8EF8-47D1-92CE-2CA458B0D600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04CC5F5-3E47-4B2A-AE4A-FE6BC14D0E24}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A0FF50-DD4D-4B1C-A66F-875F4540C071}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735695E1-98A0-41AE-BBDC-6E0302C82B57}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1831,7 +1831,7 @@
         <v>28</v>
       </c>
       <c r="N7">
-        <v>0.40439611291068944</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA300FA0-F27F-4B79-BAA7-5E0075D53747}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEE6E3F-839C-4C4E-94F1-9D7C1E5E0441}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2010C9B1-CFA5-4893-8FDF-3D219BA1A124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8247E8-F745-492E-A54D-2ABD34EAEAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,RaD,WaP,SaD,RaP,FaD,WaD</t>
-  </si>
-  <si>
-    <t>FaN,WaP,RaN,SaN,WaN,FaP,SaP,RaP</t>
+    <t>FaP,SaP,FaD,SaD,RaP,RaD,WaD,WaP</t>
+  </si>
+  <si>
+    <t>RaP,FaN,FaP,SaP,WaP,SaN,WaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaN,WaP,RaN,SaN,WaN,FaP,SaP,RaP</v>
+        <v>RaP,FaN,FaP,SaP,WaP,SaN,WaN,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,RaD,WaP,SaD,RaP,FaD,WaD</v>
+        <v>FaP,SaP,FaD,SaD,RaP,RaD,WaD,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04CC5F5-3E47-4B2A-AE4A-FE6BC14D0E24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEA3FCA-D87D-4E2E-AA1D-A41B56F6905C}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735695E1-98A0-41AE-BBDC-6E0302C82B57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328E39C3-7707-4D4D-B49C-D407C8BCE182}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>0.26702915316982878</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N5">
-        <v>0.22555529847292916</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.30301943544655252</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEE6E3F-839C-4C4E-94F1-9D7C1E5E0441}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F992604F-0B01-4EF3-81BC-F1343BB0AE20}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBD23B6-C4A4-4FD8-986E-F982E2EEED6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF45BDAA-4B2F-42FD-8CD9-27D548C0F649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaD,RaP,FaP,SaP,WaP,FaD,RaD,SaD</t>
-  </si>
-  <si>
-    <t>FaN,RaN,SaN,WaN,RaP,FaP,SaP,WaP</t>
+    <t>FaP,SaP,WaP,FaD,RaP,WaD,SaD,RaD</t>
+  </si>
+  <si>
+    <t>RaN,RaP,FaP,SaP,SaN,WaN,WaP,FaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaN,RaN,SaN,WaN,RaP,FaP,SaP,WaP</v>
+        <v>RaN,RaP,FaP,SaP,SaN,WaN,WaP,FaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaD,RaP,FaP,SaP,WaP,FaD,RaD,SaD</v>
+        <v>FaP,SaP,WaP,FaD,RaP,WaD,SaD,RaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF72AF95-6B0B-4FDF-9FFE-687736D10987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52CEC5F-EFBA-4FBA-8563-43DC0E513833}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4714123D-74A1-47BF-A55F-9813E428BFE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01987803-059A-4DA5-B128-E72973CAAD92}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>0.40439611291068944</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="N5">
-        <v>0.26702915316982878</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N6">
-        <v>0.22555529847292916</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.30301943544655252</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891C78FF-3C35-4314-89A6-426C2606F86A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90298555-CAF2-4F1F-92EB-D1130054A109}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
